--- a/其他/資料庫/資料庫_中文.xlsx
+++ b/其他/資料庫/資料庫_中文.xlsx
@@ -46,15 +46,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>change</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeDetail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -236,10 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>changeList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>defaultAddress</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -429,6 +417,18 @@
   </si>
   <si>
     <t>messageBoard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchangeDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchangeList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -819,78 +819,78 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AD1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="Z3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -898,125 +898,125 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="Z5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -1024,19 +1024,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -1044,25 +1044,25 @@
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -1070,13 +1070,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
@@ -1084,82 +1084,82 @@
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="J14" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S14" s="3"/>
     </row>

--- a/其他/資料庫/資料庫_中文.xlsx
+++ b/其他/資料庫/資料庫_中文.xlsx
@@ -114,6 +114,298 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>mention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeID(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardID(P)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>whisper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>whisperID(P)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemTalk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendTalk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveTalk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoreID(P)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commenter(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commented(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>whisper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciever(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sender(P)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多收幾人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事項</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面圖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交換寄送的地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交換分類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訊息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄件證明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>評論者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被評論者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發案時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開團時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始寄送結束/開始收件時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截團時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件緩衝時間/異議時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入團時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄件證明時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄送的物品圖時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>異議申請時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stateID(P)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stateID(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stateID(F)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>審核結束/開始寄送時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>messageBoard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchangeDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchangeList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>participant(F)
 {"userID": [1, 2]}</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,43 +416,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mention</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeID(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardID(P)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>whisper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiver(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>whisperID(P)</t>
+    <t>是否二手
+是
+否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -168,267 +426,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>itemState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemTalk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendTalk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveTalk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scoreID(P)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>commenter(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>commented(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>star</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>whisper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultAddress</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>reciever(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sender(P)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主辦人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>參加者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分類</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否二手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多收幾人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意事項</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>封面圖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交換寄送的地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交換分類</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>訊息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>寄送的物品圖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>寄件證明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>評論者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被評論者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>passward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>registerTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>發案時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>startTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>開團時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>開始寄送結束/開始收件時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>截團時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchangeItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件緩衝時間/異議時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>endTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>objectTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入團時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄件證明時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄送的物品圖時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>異議申請時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stateID(P)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stateID(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stateID(F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>審核結束/開始寄送時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>messageBoard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchangeDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchangeList</t>
+    <t>exchangeItem(要改，可能會上傳多張圖片)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -814,54 +816,56 @@
     <col min="3" max="3" width="8.88671875" style="2"/>
     <col min="4" max="4" width="16.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -872,28 +876,28 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,125 +905,125 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>32</v>
+      <c r="Y5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>51</v>
+      <c r="Y6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1027,19 +1031,19 @@
         <v>8</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1047,39 +1051,39 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
+      <c r="H9" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1087,81 +1091,81 @@
         <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="32.4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1"/>
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="R14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
